--- a/medicine/薏苡仁.xlsx
+++ b/medicine/薏苡仁.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\reptilian\medicine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -151,12 +156,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,8 +169,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,15 +223,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -261,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +313,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,14 +524,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -520,7 +549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -534,7 +563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -548,7 +577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -562,7 +591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -576,7 +605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -590,7 +619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -604,7 +633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -618,7 +647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -632,7 +661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -646,7 +675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -660,7 +689,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -674,7 +703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -688,7 +717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -702,7 +731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -716,7 +745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -730,7 +759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -744,7 +773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -758,7 +787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -772,7 +801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -786,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -801,6 +830,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/medicine/薏苡仁.xlsx
+++ b/medicine/薏苡仁.xlsx
@@ -1,167 +1,372 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\reptilian\medicine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="薏苡仁" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
-  <si>
-    <t>化合物名称</t>
-  </si>
-  <si>
-    <t>己酸 / 羊油酸 / caproic acid</t>
-  </si>
-  <si>
-    <t>己醛 / hexal / hexanal</t>
-  </si>
-  <si>
-    <t>γ-壬内酯 / γ-nonalatone</t>
-  </si>
-  <si>
-    <t>壬酸 / pelargonic acid</t>
-  </si>
-  <si>
-    <t>亚油酸 / linoleic acid</t>
-  </si>
-  <si>
-    <t>亚油酸乙酯 / ethyllinoleate</t>
-  </si>
-  <si>
-    <t>辛酸 / 羊脂酸 / caprylic acid</t>
-  </si>
-  <si>
-    <t>阿魏酰豆甾醇 / feruloylstigmasterol</t>
-  </si>
-  <si>
-    <t>阿魏酰菜油甾醇 / feruloyl campesterol</t>
-  </si>
-  <si>
-    <t>α-单油酸甘油酯 / α-monoolein</t>
-  </si>
-  <si>
-    <t>棕榈酸乙酯 / ethyl palmitate</t>
-  </si>
-  <si>
-    <t>薏苡仁酯 / coixenolide</t>
-  </si>
-  <si>
-    <t>油酸-β-单甘油酯 / β-monoolein</t>
-  </si>
-  <si>
-    <t>反-阿魏酰菜油甾醇 / trans-feruloylcampesterol</t>
-  </si>
-  <si>
-    <t>反-阿魏酰豆甾醇 / trans-ferul0ylsigmastenol</t>
-  </si>
-  <si>
-    <t>丁酸-2-乙基-3-羟基己酯 / 2-ethyl-3-hydroxyhexylbutrate</t>
-  </si>
-  <si>
-    <t>薏苡聚糖 A / coixan A</t>
-  </si>
-  <si>
-    <t>薏苡聚糖 B / coixan B</t>
-  </si>
-  <si>
-    <t>薏苡聚糖 C / coixan C</t>
-  </si>
-  <si>
-    <t>化合物分子式</t>
-  </si>
-  <si>
-    <t>C6H12O2</t>
-  </si>
-  <si>
-    <t>C6H12O</t>
-  </si>
-  <si>
-    <t>C9H16O2</t>
-  </si>
-  <si>
-    <t>C9H18O2</t>
-  </si>
-  <si>
-    <t>C18H32O2</t>
-  </si>
-  <si>
-    <t>C20H36O2</t>
-  </si>
-  <si>
-    <t>C8H16O2</t>
-  </si>
-  <si>
-    <t>C39H60O4</t>
-  </si>
-  <si>
-    <t>C38H58O4</t>
-  </si>
-  <si>
-    <t>C21H40O4</t>
-  </si>
-  <si>
-    <t>C18H36O2</t>
-  </si>
-  <si>
-    <t>C38H70O4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CAS号</t>
-  </si>
-  <si>
-    <t>142-62-1</t>
-  </si>
-  <si>
-    <t>20480-93-7</t>
-  </si>
-  <si>
-    <t>112-05-0</t>
-  </si>
-  <si>
-    <t>60-33-3</t>
-  </si>
-  <si>
-    <t>544-35-4</t>
-  </si>
-  <si>
-    <t>124-07-2</t>
-  </si>
-  <si>
-    <t>111-03-5</t>
-  </si>
-  <si>
-    <t>628-97-7</t>
-  </si>
-  <si>
-    <t>29066-43-1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+  <si>
+    <t>MOL000131</t>
+  </si>
+  <si>
+    <t>MOL001323</t>
+  </si>
+  <si>
+    <t>MOL001393</t>
+  </si>
+  <si>
+    <t>MOL001494</t>
+  </si>
+  <si>
+    <t>MOL001641</t>
+  </si>
+  <si>
+    <t>MOL001874</t>
+  </si>
+  <si>
+    <t>MOL001881</t>
+  </si>
+  <si>
+    <t>MOL001884</t>
+  </si>
+  <si>
+    <t>MOL002046</t>
+  </si>
+  <si>
+    <t>MOL002372</t>
+  </si>
+  <si>
+    <t>MOL000256</t>
+  </si>
+  <si>
+    <t>MOL002875</t>
+  </si>
+  <si>
+    <t>MOL002882</t>
+  </si>
+  <si>
+    <t>MOL000298</t>
+  </si>
+  <si>
+    <t>MOL000303</t>
+  </si>
+  <si>
+    <t>MOL003050</t>
+  </si>
+  <si>
+    <t>MOL000359</t>
+  </si>
+  <si>
+    <t>MOL000432</t>
+  </si>
+  <si>
+    <t>MOL000449</t>
+  </si>
+  <si>
+    <t>MOL000458</t>
+  </si>
+  <si>
+    <t>MOL000508</t>
+  </si>
+  <si>
+    <t>MOL005932</t>
+  </si>
+  <si>
+    <t>MOL000635</t>
+  </si>
+  <si>
+    <t>MOL000666</t>
+  </si>
+  <si>
+    <t>MOL000675</t>
+  </si>
+  <si>
+    <t>MOL000069</t>
+  </si>
+  <si>
+    <t>MOL008118</t>
+  </si>
+  <si>
+    <t>MOL008119</t>
+  </si>
+  <si>
+    <t>MOL008120</t>
+  </si>
+  <si>
+    <t>MOL008121</t>
+  </si>
+  <si>
+    <t>MOL008122</t>
+  </si>
+  <si>
+    <t>MOL008123</t>
+  </si>
+  <si>
+    <t>MOL008124</t>
+  </si>
+  <si>
+    <t>MOL008125</t>
+  </si>
+  <si>
+    <t>MOL008126</t>
+  </si>
+  <si>
+    <t>MOL000860</t>
+  </si>
+  <si>
+    <t>MOL000953</t>
+  </si>
+  <si>
+    <t>MOL000971</t>
+  </si>
+  <si>
+    <t>EIC</t>
+  </si>
+  <si>
+    <t>Sitosterol alpha1</t>
+  </si>
+  <si>
+    <t>myristic acid</t>
+  </si>
+  <si>
+    <t>Mandenol</t>
+  </si>
+  <si>
+    <t>METHYL LINOLEATE</t>
+  </si>
+  <si>
+    <t>isoarborinol</t>
+  </si>
+  <si>
+    <t>MBOA</t>
+  </si>
+  <si>
+    <t>Omaine</t>
+  </si>
+  <si>
+    <t>hexanoic acid</t>
+  </si>
+  <si>
+    <t>(6Z,10E,14E,18E)-2,6,10,15,19,23-hexamethyltetracosa-2,6,10,14,18,22-hexaene</t>
+  </si>
+  <si>
+    <t>Olein</t>
+  </si>
+  <si>
+    <t>Methyl oleate</t>
+  </si>
+  <si>
+    <t>[(2R)-2,3-dihydroxypropyl] (Z)-octadec-9-enoate</t>
+  </si>
+  <si>
+    <t>ergosterol</t>
+  </si>
+  <si>
+    <t>caprylic acid</t>
+  </si>
+  <si>
+    <t>nonanoic acid</t>
+  </si>
+  <si>
+    <t>sitosterol</t>
+  </si>
+  <si>
+    <t>linolenic acid</t>
+  </si>
+  <si>
+    <t>Stigmasterol</t>
+  </si>
+  <si>
+    <t>campesterol</t>
+  </si>
+  <si>
+    <t>Friedelin</t>
+  </si>
+  <si>
+    <t>Gaidic acid</t>
+  </si>
+  <si>
+    <t>vanillin</t>
+  </si>
+  <si>
+    <t>hexanal</t>
+  </si>
+  <si>
+    <t>oleic acid</t>
+  </si>
+  <si>
+    <t>palmitic acid</t>
+  </si>
+  <si>
+    <t>Coixenolide</t>
+  </si>
+  <si>
+    <t>Glyceryl trilinoleate</t>
+  </si>
+  <si>
+    <t>(S)-4-Nonanolide</t>
+  </si>
+  <si>
+    <t>2-Monoolein</t>
+  </si>
+  <si>
+    <t>feruloyl stigmasterol</t>
+  </si>
+  <si>
+    <t>feruloy ampeaterol</t>
+  </si>
+  <si>
+    <t>trans-feruloylcampesterol</t>
+  </si>
+  <si>
+    <t>trans-ferul0ylsigmastenol</t>
+  </si>
+  <si>
+    <t>2-ethyl-3-hydroxyhexyl butyrate</t>
+  </si>
+  <si>
+    <t>stearic acid</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Ethylpalmitate</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000131.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL001323.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL001393.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL001494.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL001641.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL001874.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL001881.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL001884.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL002046.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL002372.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000256.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL002875.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL002882.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000298.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000303.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL003050.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000359.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000432.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000449.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000458.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000508.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL005932.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000635.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000666.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000675.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000069.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008118.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008119.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008120.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008121.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008122.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008123.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008124.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008125.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL008126.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000860.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000953.png</t>
+  </si>
+  <si>
+    <t>lsp.nwu.edu.cn/strctpng/MOL000971.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,15 +374,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,23 +421,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,10 +503,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,7 +537,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,21 +712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -549,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -557,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -571,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -585,13 +766,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -599,13 +780,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -613,13 +794,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -627,13 +808,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -641,13 +822,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -655,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -669,13 +850,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -683,13 +864,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -697,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -711,13 +892,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -725,13 +906,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -739,13 +920,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -753,13 +934,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -767,13 +948,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -781,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -795,13 +976,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -809,13 +990,13 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -823,14 +1004,265 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>